--- a/application_data_condensed_maternity_leave_applicants_df.xlsx
+++ b/application_data_condensed_maternity_leave_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -85,6 +85,9 @@
     <t>ORGANIZATION_TYPE</t>
   </si>
   <si>
+    <t>WEEKEND_APPR_PROCESS_START</t>
+  </si>
+  <si>
     <t>FRAUD_RISK</t>
   </si>
   <si>
@@ -158,6 +161,9 @@
   </si>
   <si>
     <t>Bank</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Low Risk</t>
@@ -518,13 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X6"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,22 +603,25 @@
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:25">
       <c r="A2">
         <v>156685</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -630,19 +639,19 @@
         <v>765000</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R2">
         <v>2</v>
@@ -654,33 +663,36 @@
         <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2">
         <v>19</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="X2" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:25">
       <c r="A3">
         <v>227123</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -698,22 +710,22 @@
         <v>810000</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -725,33 +737,36 @@
         <v>2</v>
       </c>
       <c r="U3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V3">
         <v>17</v>
       </c>
       <c r="W3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X3" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:25">
       <c r="A4">
         <v>352877</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -769,22 +784,22 @@
         <v>1435500</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -796,33 +811,36 @@
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="V4">
         <v>11</v>
       </c>
       <c r="W4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="X4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:25">
       <c r="A5">
         <v>437628</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -840,25 +858,25 @@
         <v>423000</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P5">
         <v>8</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -870,33 +888,36 @@
         <v>2</v>
       </c>
       <c r="U5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5">
         <v>13</v>
       </c>
       <c r="W5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="X5" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:25">
       <c r="A6">
         <v>442305</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -914,22 +935,22 @@
         <v>315000</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R6">
         <v>3</v>
@@ -941,16 +962,19 @@
         <v>2</v>
       </c>
       <c r="U6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V6">
         <v>11</v>
       </c>
       <c r="W6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="X6" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/application_data_condensed_maternity_leave_applicants_df.xlsx
+++ b/application_data_condensed_maternity_leave_applicants_df.xlsx
@@ -163,7 +163,7 @@
     <t>Bank</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-</t>
   </si>
   <si>
     <t>Low Risk</t>

--- a/application_data_condensed_maternity_leave_applicants_df.xlsx
+++ b/application_data_condensed_maternity_leave_applicants_df.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>SK_ID_CURR</t>
   </si>
@@ -146,6 +146,18 @@
   </si>
   <si>
     <t>MONDAY</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
   </si>
   <si>
     <t>Business Entity Type 1</t>
@@ -665,17 +677,17 @@
       <c r="U2" t="s">
         <v>41</v>
       </c>
-      <c r="V2">
-        <v>19</v>
+      <c r="V2" t="s">
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -739,17 +751,17 @@
       <c r="U3" t="s">
         <v>42</v>
       </c>
-      <c r="V3">
-        <v>17</v>
+      <c r="V3" t="s">
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="X3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -813,17 +825,17 @@
       <c r="U4" t="s">
         <v>42</v>
       </c>
-      <c r="V4">
-        <v>11</v>
+      <c r="V4" t="s">
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="X4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -890,17 +902,17 @@
       <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="V5">
-        <v>13</v>
+      <c r="V5" t="s">
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -964,17 +976,17 @@
       <c r="U6" t="s">
         <v>43</v>
       </c>
-      <c r="V6">
-        <v>11</v>
+      <c r="V6" t="s">
+        <v>46</v>
       </c>
       <c r="W6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="Y6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
